--- a/biology/Zoologie/Genicanthus/Genicanthus.xlsx
+++ b/biology/Zoologie/Genicanthus/Genicanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Genicanthus est un genre de poissons osseux de la famille des Pomacanthidés. Les espèces de ce genre sont communément appelées Poisson-ange lyre en raison de la forme de leur nageoire caudale qui évoque celle d'une lyre.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Genicanthus  présentent un dimorphisme sexuel contrairement aux autres Pomacanthidés.[réf. souhaitée]
-Munis d'une petite bouche, ils sont planctonivores. Pour cette raison, ils cohabitent très bien avec les autres animaux en aquarium, et y sont donc très appréciés[1].
+Munis d'une petite bouche, ils sont planctonivores. Pour cette raison, ils cohabitent très bien avec les autres animaux en aquarium, et y sont donc très appréciés.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                           (17 octobre 2014)[2], World Register of Marine Species                               (17 octobre 2014)[3] et ITIS      (5 févr. 2011)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                           (17 octobre 2014), World Register of Marine Species                               (17 octobre 2014) et ITIS      (5 févr. 2011) :
 Genicanthus bellus Randall, 1975 — Poisson-ange lyre splendide
 Genicanthus caudovittatus (Günther, 1860) — Poisson-ange lyre zébré de l'océan Indien
 Genicanthus lamarck (Lacepède, 1802) — Poisson-ange lyre de Lamarck
